--- a/biology/Botanique/Goyavier_du_Costa_Rica/Goyavier_du_Costa_Rica.xlsx
+++ b/biology/Botanique/Goyavier_du_Costa_Rica/Goyavier_du_Costa_Rica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psidium friedrichsthalianum
 Le goyavier du Costa Rica (Psidium friedrichsthalianum) est une espèce d'arbre de la famille des Myrtaceae . Il produit la coronille. Dans sa zone d’origine, il est majoritairement cultivé en jardins et peu en vergers.
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cirad a importé cet arbre fruitier à La Réunion en 1993, dans le cadre de la diversification agricole des Hauts humides. L'arbre fournit son meilleur rendement lorsqu'il est cultivé à une altitude comprise entre 200 et 600 m. Il peut alors produire jusqu’à 140 kg de fruits et même doubler sa production à la suite d’un cyclone dévastateur. Le potentiel de production actuel est estimé à une quinzaine de tonnes par an.
 </t>
@@ -543,7 +557,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calyptropsidium friedrichsthalianum O.Berg</t>
         </is>
